--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\歼灭判断\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C752079B-F06E-417F-A69A-E05E5E322627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF58D9F0-6A36-463C-BCC5-CE1253D76FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{776165D5-EE0D-48F6-8A93-C47D3D25E7BC}"/>
+    <workbookView xWindow="32535" yWindow="5730" windowWidth="10560" windowHeight="11220" xr2:uid="{776165D5-EE0D-48F6-8A93-C47D3D25E7BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -2,18 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\歼灭判断\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF58D9F0-6A36-463C-BCC5-CE1253D76FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BB219E-6F36-4F83-B2F5-C27DEF43F75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32535" yWindow="5730" windowWidth="10560" windowHeight="11220" xr2:uid="{776165D5-EE0D-48F6-8A93-C47D3D25E7BC}"/>
+    <workbookView xWindow="0" yWindow="5295" windowWidth="10560" windowHeight="11220" activeTab="1" xr2:uid="{776165D5-EE0D-48F6-8A93-C47D3D25E7BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="others" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>OurData</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,11 +473,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A02095A-698C-43E1-BAAF-B79330B5A2CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1011DCF-7589-4E32-809F-5E19CCC2C34F}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -573,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -581,7 +584,343 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>164</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3275D69A-C0E6-4C04-B600-B2B55F344D97}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>456</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>636</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>216</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>258</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>165</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>147</v>
+      </c>
+      <c r="F8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>162</v>
+      </c>
+      <c r="F9">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+      <c r="F10">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB7602D-956E-4687-9576-A62F8F7A7517}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E47" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,135 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\歼灭判断\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BB219E-6F36-4F83-B2F5-C27DEF43F75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E22A40F-9684-4EE9-837B-F31F18A2704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5295" windowWidth="10560" windowHeight="11220" activeTab="1" xr2:uid="{776165D5-EE0D-48F6-8A93-C47D3D25E7BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="others" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="others" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>OurData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小师妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>苗疆女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>李师师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>役使</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>棋士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>西域女子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>将门女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小乞丐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>绣娘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>丫鬟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>草原女孩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>采药女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>医师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>书香女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>针线女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>戏子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卖伞女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -142,7 +115,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -152,20 +132,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -178,7 +167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -212,20 +201,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -253,31 +242,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -305,23 +277,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -333,638 +288,678 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1011DCF-7589-4E32-809F-5E19CCC2C34F}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B4" s="3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B6" s="3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B10" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B16" s="3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3275D69A-C0E6-4C04-B600-B2B55F344D97}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>456</v>
+      </c>
+      <c r="C2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>636</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>216</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>258</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3">
         <v>456</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    </row>
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
         <v>636</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>147</v>
+      </c>
+      <c r="F8" s="3">
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>162</v>
+      </c>
+      <c r="F9" s="3">
         <v>216</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>123</v>
+      </c>
+      <c r="F10" s="3">
         <v>258</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>165</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>147</v>
-      </c>
-      <c r="F8">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>162</v>
-      </c>
-      <c r="F9">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>123</v>
-      </c>
-      <c r="F10">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB7602D-956E-4687-9576-A62F8F7A7517}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1016</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>613</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -5,24 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\歼灭判断\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\call_me_DZG_judger_for_HuBiaoTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E22A40F-9684-4EE9-837B-F31F18A2704A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF3A6D0-2CB9-428F-93DB-C34F34E87BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
-    <sheet name="others" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="my-data" sheetId="1" r:id="rId1"/>
+    <sheet name="oldenemy" sheetId="2" r:id="rId2"/>
+    <sheet name="enemey-sanrenhe" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -79,13 +79,93 @@
   </si>
   <si>
     <t>卖伞女</t>
+  </si>
+  <si>
+    <t>草原女孩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗疆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖伞女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书香女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>针线女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣娘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采药女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>琵琶女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丫鬟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>草原女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将门女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西域女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>棋士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕快</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅鹰女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驯马师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花艺师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>役使</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李师师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小师妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +185,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -149,6 +236,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -456,8 +546,8 @@
   </sheetPr>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -479,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>1018</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -487,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -495,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -503,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -511,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>316</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -519,7 +609,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>268</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -527,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -535,7 +625,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -543,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -551,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -567,7 +657,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -575,7 +665,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -583,7 +673,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -591,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -607,7 +697,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="3">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +714,9 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -734,9 +826,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>123</v>
@@ -804,17 +896,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,140 +912,156 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3">
-        <v>100</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\call_me_DZG_judger_for_HuBiaoTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF3A6D0-2CB9-428F-93DB-C34F34E87BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B452F7-ADD1-4ABF-9A83-A6D3B97338B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my-data" sheetId="1" r:id="rId1"/>
     <sheet name="oldenemy" sheetId="2" r:id="rId2"/>
-    <sheet name="enemey-sanrenhe" sheetId="3" r:id="rId3"/>
+    <sheet name="enemy-sanrenhe" sheetId="3" r:id="rId3"/>
+    <sheet name="enemy-shanhaiboring" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -158,6 +160,53 @@
   </si>
   <si>
     <t>小师妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小乞丐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红娘子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙琪儿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑舞者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山海无情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-shanhaiboring</t>
+  </si>
+  <si>
+    <t>enemyName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-sheetname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三人禾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-sanrenhe</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -898,8 +947,8 @@
   </sheetPr>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1068,4 +1117,224 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96370C57-472B-4D3F-B6C8-2FAB15BDE5E9}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E446786-6D8D-47C9-8F02-2B87A1CB5266}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\call_me_DZG_judger_for_HuBiaoTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B452F7-ADD1-4ABF-9A83-A6D3B97338B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06480C0-4599-4C9A-9939-BAFD7DA8D92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my-data" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="enemy-sanrenhe" sheetId="3" r:id="rId3"/>
     <sheet name="enemy-shanhaiboring" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="enemy-ruizedalang" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -207,6 +208,26 @@
   </si>
   <si>
     <t>enemy-sanrenhe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐泽·大郎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-ruizedalang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>少将军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆长青</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +614,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -605,7 +626,7 @@
     <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,31 +634,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -645,31 +666,40 @@
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>341</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>208</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -677,7 +707,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -685,7 +715,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -693,7 +723,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -701,7 +731,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -709,7 +739,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -717,7 +747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -725,7 +755,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -948,7 +978,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="D46" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1124,7 +1154,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B19" sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1297,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E446786-6D8D-47C9-8F02-2B87A1CB5266}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1333,6 +1363,238 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1326C1B-0E86-4CCC-9A03-FD4D00691CF7}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97738\Desktop\call_me_DZG_judger_for_HuBiaoTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06480C0-4599-4C9A-9939-BAFD7DA8D92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC87E63C-2EB0-4A09-91C0-BFAE89E21D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="18840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my-data" sheetId="1" r:id="rId1"/>
     <sheet name="oldenemy" sheetId="2" r:id="rId2"/>
     <sheet name="enemy-sanrenhe" sheetId="3" r:id="rId3"/>
     <sheet name="enemy-shanhaiboring" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
-    <sheet name="enemy-ruizedalang" sheetId="7" r:id="rId6"/>
+    <sheet name="enemy-wuyanzu" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="enemy-ruizedalang" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -228,6 +229,14 @@
   </si>
   <si>
     <t>陆长青</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潇洒吴彦祖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy-wuyanzu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +623,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -626,7 +635,7 @@
     <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -634,72 +643,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>341</v>
       </c>
-      <c r="G6" s="3">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>307</v>
       </c>
-      <c r="G7" s="3">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>208</v>
       </c>
-      <c r="G8">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -707,7 +707,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -715,7 +715,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -723,7 +723,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -731,7 +731,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -739,7 +739,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -747,7 +747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -755,7 +755,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1326,11 +1326,235 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81EA73D-6E41-49A0-A5BB-2BBE08ABFF1D}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>99999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E446786-6D8D-47C9-8F02-2B87A1CB5266}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1371,18 +1595,26 @@
         <v>52</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1326C1B-0E86-4CCC-9A03-FD4D00691CF7}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D43" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
